--- a/Resultados_std.xlsx
+++ b/Resultados_std.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Linear Nic</t>
   </si>
@@ -37,6 +37,78 @@
   </si>
   <si>
     <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
   </si>
 </sst>
 </file>
@@ -85,222 +157,222 @@
   <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.15625" customWidth="true"/>
-    <col min="6" max="6" width="16.82421875" customWidth="true"/>
-    <col min="7" max="7" width="16.7109375" customWidth="true"/>
-    <col min="8" max="8" width="17.37890625" customWidth="true"/>
+    <col min="1" max="1" width="13.15625" customWidth="true"/>
+    <col min="2" max="2" width="13.82421875" customWidth="true"/>
+    <col min="3" max="3" width="16.15625" customWidth="true"/>
+    <col min="4" max="4" width="16.82421875" customWidth="true"/>
+    <col min="5" max="5" width="20.046875" customWidth="true"/>
+    <col min="6" max="6" width="20.7109375" customWidth="true"/>
+    <col min="7" max="7" width="20.6015625" customWidth="true"/>
+    <col min="8" max="8" width="21.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.22560136852845261</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.042225391244962385</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>0.18649202191545633</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="0">
-        <v>0.02709588652410222</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.055539649939950121</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F2" s="0">
-        <v>0.019584713830764561</v>
+        <v>0.02</v>
       </c>
       <c r="G2" s="0">
-        <v>0.027848590865379726</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="H2" s="0">
-        <v>0.018188689871192851</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.23113929654537127</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="B3" s="0">
-        <v>1.1961242292336438</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="0">
-        <v>0.16855657654413747</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>1.1292215195367625</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.5014181921472286</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="0">
-        <v>0.92871869501719384</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="G3" s="0">
-        <v>0.59835302919482503</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="H3" s="0">
-        <v>0.86873047590816987</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.1751487041720079</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="B4" s="0">
-        <v>1.1455334143240055</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>2.6235874200352849</v>
+        <v>2.6200000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>1.6841268090860193</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="E4" s="0">
-        <v>2.9659586839079584</v>
+        <v>2.9700000000000002</v>
       </c>
       <c r="F4" s="0">
-        <v>1.1598110253184002</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G4" s="0">
-        <v>2.7592079768471915</v>
+        <v>2.7599999999999998</v>
       </c>
       <c r="H4" s="0">
-        <v>0.57076421177802861</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5760510881939296</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>2.1575559550375347</v>
+        <v>2.1600000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>1.7860054768983566</v>
+        <v>1.79</v>
       </c>
       <c r="D5" s="0">
-        <v>2.9729047424965414</v>
+        <v>2.9700000000000002</v>
       </c>
       <c r="E5" s="0">
-        <v>4.6068424609219107</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F5" s="0">
-        <v>3.3110361151409027</v>
+        <v>3.3100000000000001</v>
       </c>
       <c r="G5" s="0">
-        <v>5.5379440560106508</v>
+        <v>5.54</v>
       </c>
       <c r="H5" s="0">
-        <v>3.3767639660168878</v>
+        <v>3.3799999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2.3330918420975628</v>
+        <v>2.3300000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>3.0953960820743065</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>2.0791641531473939</v>
+        <v>2.0800000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>4.0230376667543686</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8720240053014421</v>
+        <v>2.8700000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>4.0275803565505601</v>
+        <v>4.0300000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>2.9338483107847768</v>
+        <v>2.9300000000000002</v>
       </c>
       <c r="H6" s="0">
-        <v>3.838178272660425</v>
+        <v>3.8399999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1.6083055593185873</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="B7" s="0">
-        <v>3.6990972498156269</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="C7" s="0">
-        <v>1.7179888215889836</v>
+        <v>1.72</v>
       </c>
       <c r="D7" s="0">
-        <v>3.6863333316864875</v>
+        <v>3.6899999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>3.8522530204369247</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>3.3575450341903599</v>
+        <v>3.3599999999999999</v>
       </c>
       <c r="G7" s="0">
-        <v>4.4275031971709486</v>
+        <v>4.4299999999999997</v>
       </c>
       <c r="H7" s="0">
-        <v>3.8938951812387823</v>
+        <v>3.8900000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>156782498.21174908</v>
+        <v>156782498.21000001</v>
       </c>
       <c r="B8" s="0">
-        <v>119540053.22705829</v>
+        <v>119540053.23</v>
       </c>
       <c r="C8" s="0">
-        <v>189471211.11614159</v>
+        <v>189471211.12</v>
       </c>
       <c r="D8" s="0">
-        <v>1320303544.861407</v>
+        <v>1320303544.8599999</v>
       </c>
       <c r="E8" s="0">
-        <v>264814.20941360219</v>
+        <v>264814.21000000002</v>
       </c>
       <c r="F8" s="0">
-        <v>135350.67005679003</v>
+        <v>135350.67000000001</v>
       </c>
       <c r="G8" s="0">
-        <v>335793.32035306864</v>
+        <v>335793.32000000001</v>
       </c>
       <c r="H8" s="0">
-        <v>111012.95554652045</v>
+        <v>111012.96000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados_std.xlsx
+++ b/Resultados_std.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>Linear Nic</t>
   </si>
@@ -37,6 +37,1518 @@
   </si>
   <si>
     <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
   </si>
   <si>
     <t>Fun_Linear Nic</t>
@@ -169,28 +1681,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>528</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>530</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>531</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>532</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>533</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>534</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -351,28 +1863,28 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>156782498.21000001</v>
+        <v>35370346.159999996</v>
       </c>
       <c r="B8" s="0">
-        <v>119540053.23</v>
+        <v>5047625.5199999996</v>
       </c>
       <c r="C8" s="0">
-        <v>189471211.12</v>
+        <v>35334869.259999998</v>
       </c>
       <c r="D8" s="0">
-        <v>1320303544.8599999</v>
+        <v>35774795.030000001</v>
       </c>
       <c r="E8" s="0">
-        <v>264814.21000000002</v>
+        <v>14707.690000000001</v>
       </c>
       <c r="F8" s="0">
-        <v>135350.67000000001</v>
+        <v>2650.8000000000002</v>
       </c>
       <c r="G8" s="0">
-        <v>335793.32000000001</v>
+        <v>12555.26</v>
       </c>
       <c r="H8" s="0">
-        <v>111012.96000000001</v>
+        <v>1537.0999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados_std.xlsx
+++ b/Resultados_std.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t>Linear Nic</t>
   </si>
@@ -37,6 +37,78 @@
   </si>
   <si>
     <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
   </si>
   <si>
     <t>Fun_Linear Nic</t>
@@ -1669,40 +1741,40 @@
   <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.15625" customWidth="true"/>
-    <col min="2" max="2" width="13.82421875" customWidth="true"/>
-    <col min="3" max="3" width="16.15625" customWidth="true"/>
-    <col min="4" max="4" width="16.82421875" customWidth="true"/>
-    <col min="5" max="5" width="20.046875" customWidth="true"/>
-    <col min="6" max="6" width="20.7109375" customWidth="true"/>
-    <col min="7" max="7" width="20.6015625" customWidth="true"/>
-    <col min="8" max="8" width="21.26953125" customWidth="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="true"/>
+    <col min="2" max="2" width="14.85546875" customWidth="true"/>
+    <col min="3" max="3" width="17.28515625" customWidth="true"/>
+    <col min="4" max="4" width="18" customWidth="true"/>
+    <col min="5" max="5" width="21" customWidth="true"/>
+    <col min="6" max="6" width="21.7109375" customWidth="true"/>
+    <col min="7" max="7" width="21.5703125" customWidth="true"/>
+    <col min="8" max="8" width="22.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_std.xlsx
+++ b/Resultados_std.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>Linear Nic</t>
   </si>
@@ -37,6 +37,126 @@
   </si>
   <si>
     <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
   </si>
   <si>
     <t>Fun_Linear Nic</t>
@@ -1753,28 +1873,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_std.xlsx
+++ b/Resultados_std.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t>Linear Nic</t>
   </si>
@@ -37,6 +37,54 @@
   </si>
   <si>
     <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Fun_Linear Nic</t>
+  </si>
+  <si>
+    <t>Fun_Linear USA</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Fun_Quadratic USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>Fun_HP con λ = 6.25 USA</t>
   </si>
   <si>
     <t>Fun_Linear Nic</t>
@@ -1873,28 +1921,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2">
